--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.3.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="274">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1158,10 +1158,16 @@
     <t xml:space="preserve">Coke purity</t>
   </si>
   <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment</t>
+    <t xml:space="preserve">kpi_fk_lvl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assortment_fk</t>
   </si>
   <si>
     <t xml:space="preserve">Enfriadores CC, Enfriadores Otros,Plataformas,Anaquel,POS,Exteriores </t>
@@ -1867,7 +1873,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C60" activeCellId="1" sqref="K2:M4 C60"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3787,30 +3793,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="K2:M4 D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="78" width="45.8461538461538"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="78" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="78" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="78" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="78" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="78" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3827,93 +3833,99 @@
         <v>3</v>
       </c>
       <c r="E1" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="G1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="H1" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="I1" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="K1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="L1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="M1" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="N1" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="O1" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="P1" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="Q1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="82" t="s">
+      <c r="R1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="S1" s="82" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="59" t="n">
         <v>33</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="68" t="n">
-        <v>6</v>
+      <c r="C2" s="68" t="s">
+        <v>266</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="68" t="n">
+        <v>939</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="G2" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="H2" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="60"/>
       <c r="K2" s="60"/>
-      <c r="L2" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="N2" s="88"/>
+      <c r="O2" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="R2" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="88"/>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S2" s="88"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="59" t="n">
         <v>34</v>
       </c>
@@ -3926,38 +3938,41 @@
       <c r="D3" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="68" t="n">
+        <v>957</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="G3" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="H3" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="60"/>
       <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" s="88"/>
+      <c r="O3" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="88" t="s">
+      <c r="R3" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="88"/>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S3" s="88"/>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="59" t="n">
         <v>35</v>
       </c>
@@ -3970,36 +3985,39 @@
       <c r="D4" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="68" t="n">
+        <v>941</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="G4" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="H4" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88" t="s">
+      <c r="N4" s="88"/>
+      <c r="O4" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="R4" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="59" t="n">
@@ -4014,36 +4032,39 @@
       <c r="D5" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="68" t="n">
+        <v>943</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="G5" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="H5" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="88" t="s">
+      <c r="R5" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="59" t="n">
@@ -4058,36 +4079,39 @@
       <c r="D6" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="68" t="n">
+        <v>945</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="G6" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="H6" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88" t="s">
+      <c r="N6" s="88"/>
+      <c r="O6" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="88" t="s">
+      <c r="R6" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4108,7 +4132,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="K2:M4 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4387,7 +4411,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>144</v>
@@ -4528,7 +4552,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="K2:M4 K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4598,7 +4622,7 @@
         <v>102</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E2" s="62" t="s">
         <v>192</v>
@@ -4610,7 +4634,7 @@
         <v>176</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="62"/>
@@ -4624,7 +4648,7 @@
         <v>195</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O2" s="66" t="s">
         <v>44</v>
@@ -4652,7 +4676,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="K2:M4"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4784,7 +4808,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="1" sqref="K2:M4 O2"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5209,7 +5233,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="K2:M4 Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5351,7 +5375,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="1" sqref="K2:M4 K8"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5634,7 +5658,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="K2:M4 C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6061,8 +6085,8 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="K2:M4 Q2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6290,8 +6314,8 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:M4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6501,7 +6525,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="K2:M4 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.3.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$63</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="273">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1050,9 +1051,6 @@
   </si>
   <si>
     <t xml:space="preserve">Is each sub_category in the scene blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
   </si>
   <si>
     <t xml:space="preserve">TOTEM,TIRAS DE PRECIO,TE,SUEROS,SIN AZUCAR,SABORES,PLATAFORMAS,Otros,NCB's,NARANJADAS,LECHE BLANCA,JUGOS Y NECTARES,ISOTONICOS,Frutales,CREMA,Colas Sin Azucar,COLAS,BEBIDAS FRUTAS,BEBIDAS ENERGETICAS,BEBIDAS DE SOYA,
@@ -1879,17 +1877,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -3795,24 +3793,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="78" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="78" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="78" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="78" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="78" width="11.6761133603239"/>
@@ -3833,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F1" s="82" t="s">
         <v>5</v>
@@ -3886,7 +3884,7 @@
         <v>106</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>107</v>
@@ -3910,11 +3908,11 @@
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
       <c r="M2" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N2" s="88"/>
       <c r="O2" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P2" s="88"/>
       <c r="Q2" s="88" t="s">
@@ -3957,11 +3955,11 @@
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
       <c r="M3" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N3" s="88"/>
       <c r="O3" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P3" s="88"/>
       <c r="Q3" s="88" t="s">
@@ -3995,7 +3993,7 @@
         <v>109</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="60" t="s">
@@ -4004,11 +4002,11 @@
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
       <c r="M4" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N4" s="88"/>
       <c r="O4" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P4" s="88"/>
       <c r="Q4" s="88" t="s">
@@ -4042,7 +4040,7 @@
         <v>109</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I5" s="62"/>
       <c r="J5" s="60" t="s">
@@ -4051,11 +4049,11 @@
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
       <c r="M5" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N5" s="88"/>
       <c r="O5" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P5" s="88"/>
       <c r="Q5" s="88" t="s">
@@ -4089,7 +4087,7 @@
         <v>109</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="60" t="s">
@@ -4098,11 +4096,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
       <c r="M6" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N6" s="88"/>
       <c r="O6" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P6" s="88"/>
       <c r="Q6" s="88" t="s">
@@ -4139,17 +4137,17 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.9878542510121"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
@@ -4411,7 +4409,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>144</v>
@@ -4622,7 +4620,7 @@
         <v>102</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" s="62" t="s">
         <v>192</v>
@@ -4634,7 +4632,7 @@
         <v>176</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="62"/>
@@ -4648,7 +4646,7 @@
         <v>195</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O2" s="66" t="s">
         <v>44</v>
@@ -4682,14 +4680,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
@@ -4814,23 +4812,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5244,14 +5242,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5381,7 +5379,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.2105263157895"/>
     <col collapsed="false" hidden="false" max="13" min="8" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.78542510121457"/>
@@ -5657,27 +5655,27 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="78" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="78" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="59.663967611336"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="78" width="60.2024291497976"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="78" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="76.6963562753036"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="78" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="78" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="78" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="6.10526315789474"/>
@@ -6029,7 +6027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>228</v>
       </c>
@@ -6043,7 +6041,7 @@
         <v>54</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>70</v>
@@ -6052,7 +6050,7 @@
         <v>183</v>
       </c>
       <c r="J9" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K9" s="78" t="s">
         <v>201</v>
@@ -6092,20 +6090,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6123,7 +6121,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>6</v>
@@ -6144,19 +6142,19 @@
         <v>176</v>
       </c>
       <c r="K1" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="M1" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="N1" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="O1" s="82" t="s">
         <v>236</v>
-      </c>
-      <c r="O1" s="82" t="s">
-        <v>237</v>
       </c>
       <c r="P1" s="82" t="s">
         <v>8</v>
@@ -6198,23 +6196,23 @@
         <v>123</v>
       </c>
       <c r="F2" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>239</v>
       </c>
       <c r="H2" s="60" t="s">
         <v>161</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>241</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>242</v>
       </c>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -6247,35 +6245,35 @@
         <v>163</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" s="68" t="s">
         <v>123</v>
       </c>
       <c r="F3" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>239</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>161</v>
       </c>
       <c r="I3" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="84" t="s">
         <v>244</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>245</v>
       </c>
       <c r="L3" s="84"/>
       <c r="M3" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="85" t="s">
         <v>246</v>
-      </c>
-      <c r="N3" s="85" t="s">
-        <v>247</v>
       </c>
       <c r="O3" s="85" t="s">
         <v>181</v>
@@ -6320,19 +6318,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6360,10 +6358,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -6401,19 +6399,19 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="H2" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="I2" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="66" t="s">
@@ -6441,16 +6439,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>250</v>
-      </c>
       <c r="G3" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="87" t="s">
         <v>254</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>255</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
@@ -6480,19 +6478,19 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>250</v>
-      </c>
       <c r="G4" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="I4" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="66" t="s">
@@ -6531,9 +6529,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6548,10 +6546,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,7 +6563,7 @@
         <v>130</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -6582,7 +6580,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -6599,7 +6597,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -6616,7 +6614,7 @@
         <v>141</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -6633,7 +6631,7 @@
         <v>147</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -6650,7 +6648,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -6667,7 +6665,7 @@
         <v>149</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -6684,7 +6682,7 @@
         <v>150</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -6701,7 +6699,7 @@
         <v>155</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -6718,7 +6716,7 @@
         <v>156</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -6735,7 +6733,7 @@
         <v>157</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -6752,7 +6750,7 @@
         <v>158</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -6769,7 +6767,7 @@
         <v>166</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -6786,7 +6784,7 @@
         <v>167</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -6803,7 +6801,7 @@
         <v>168</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -6820,7 +6818,7 @@
         <v>169</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
